--- a/TI-Aula-Requisitos.xlsx
+++ b/TI-Aula-Requisitos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22704"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_105a\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BANDTEC\Pesquisa e Inovação\bobpepper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="11_E3D5C2EFEEDF49D85B86260091FE470EEFD61B72" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BFB904A4-CBFD-4378-853F-A709CE889B22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivo" sheetId="5" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Escopo Arquitetura" sheetId="2" r:id="rId4"/>
     <sheet name="Requisitos" sheetId="7" r:id="rId5"/>
     <sheet name="BackLog" sheetId="3" r:id="rId6"/>
-    <sheet name="Sprint2 BackLog" sheetId="4" r:id="rId7"/>
+    <sheet name="Sprint BackLog 1" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -50,7 +49,7 @@
     <definedName name="TrabalhoEmEquipe">INDIRECT(#REF!)</definedName>
     <definedName name="visão">INDIRECT(#REF!)</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="114">
   <si>
     <t xml:space="preserve">Informatizar dados e registros vitais da plantação para que o produtor tome decisões mais acertivas e tenha um controle mais amplo de seu cultivo. </t>
   </si>
@@ -274,20 +273,149 @@
     <t>Modelo de exibição de dados (gráficos)</t>
   </si>
   <si>
-    <t>Tarefas</t>
-  </si>
-  <si>
-    <t>Quem faz</t>
-  </si>
-  <si>
-    <t>Testar códigos</t>
+    <t>Criar tabela para dados da temperatura</t>
+  </si>
+  <si>
+    <t>Criar tabela para dados de cadastro PF</t>
+  </si>
+  <si>
+    <t>Criar tabela para dados para cadastro de espécies de pimentas e informações de características e cultivo</t>
+  </si>
+  <si>
+    <t>Criar tabela para dados da plantação que a PF cadastrada realizar</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Criar Site</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>Criar os campos de Informações Pessoais</t>
+  </si>
+  <si>
+    <t>Validar CPF</t>
+  </si>
+  <si>
+    <t>Validar Email</t>
+  </si>
+  <si>
+    <t>Definir campos obrigatórios</t>
+  </si>
+  <si>
+    <t>Criar campos de Endereço</t>
+  </si>
+  <si>
+    <t>Validar login</t>
+  </si>
+  <si>
+    <t>Validar senha</t>
+  </si>
+  <si>
+    <t>Requerir senha</t>
+  </si>
+  <si>
+    <t>Requerir email</t>
+  </si>
+  <si>
+    <t>Home - quem somos, contato, financeiro, login e equipe</t>
+  </si>
+  <si>
+    <t>Requerir m² do terreno de plantio</t>
+  </si>
+  <si>
+    <t>Criar botão para limpar a informação inserida</t>
+  </si>
+  <si>
+    <t>Tela de cadastro PF</t>
+  </si>
+  <si>
+    <t>Botão para entrar na aplicação</t>
+  </si>
+  <si>
+    <t>Sprint backlog 1</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t>Autor(es)</t>
+  </si>
+  <si>
+    <t>Calcular tipos de planos para comprar o sistema</t>
+  </si>
+  <si>
+    <t>Exibir lembretes</t>
+  </si>
+  <si>
+    <t>Exibir eventos</t>
+  </si>
+  <si>
+    <t>Exibir gráficos (relação hora-temperatura-sensor)</t>
+  </si>
+  <si>
+    <t>IdEntregavel</t>
+  </si>
+  <si>
+    <t>Ajustar calculo Anual</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t>Ñ Func.</t>
+  </si>
+  <si>
+    <t>Modelagem de dados (BD)</t>
+  </si>
+  <si>
+    <t>Modelo conceitual</t>
+  </si>
+  <si>
+    <t>Ajustar página Home - quem somos, contato, financeiro, login e equipe</t>
+  </si>
+  <si>
+    <t>Modificar Tela de contato</t>
+  </si>
+  <si>
+    <t>Ajustar informações da empresa</t>
+  </si>
+  <si>
+    <t>Tela inicial do sistema para visualização dos dados, lembretes e eventos registrados (protótipo PPT)</t>
+  </si>
+  <si>
+    <t>Gabriel Augusto</t>
+  </si>
+  <si>
+    <t>Jéssica</t>
+  </si>
+  <si>
+    <t>Gabriel Alves</t>
+  </si>
+  <si>
+    <t>Gabriel Augusto e Playstexo</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Playstexo e Felipe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -303,6 +431,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -367,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +542,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,48 +1263,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E480FA6-FCA0-4803-98E3-D099DD9B9070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="127.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
     </row>
   </sheetData>
@@ -1174,20 +1316,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57521C1A-6953-418F-8062-DE0F2A985D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1195,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1203,7 +1345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1219,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1227,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1267,12 +1409,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1280,12 +1422,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1293,12 +1435,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1309,32 +1451,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99D8E78-95CE-4ECC-A039-A35AC53ED00C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87D1EFD-236E-4A83-BA7F-D283C077E261}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="115.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +1500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1366,7 +1508,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -1380,14 +1522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4A765A-C25A-46BC-8399-5A3CA9FDF5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="11" bestFit="1" customWidth="1"/>
@@ -1397,7 +1539,7 @@
     <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75">
+    <row r="1" spans="1:5" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1414,7 +1556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>23</v>
       </c>
@@ -1465,7 +1607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1482,7 +1624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
@@ -1499,7 +1641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -1516,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>25</v>
       </c>
@@ -1567,7 +1709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1760,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -1635,7 +1777,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -1669,7 +1811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1692,22 +1834,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C13D329-AD81-4935-A139-A537116C6063}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -1715,30 +1857,302 @@
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
+      <c r="B6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1747,18 +2161,374 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B6EC44-ACFA-4D5D-B5A3-4B8E7C1DF6F3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="20">
+        <v>8</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="20">
+        <v>3</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="20">
+        <v>13</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="20">
+        <v>8</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9BC80282CCA404AA1CD1CA861A2963D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4d0a986244f0c450349ad09cdebecbb2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c4830a68-a8b0-4951-a620-6963d0f88529" xmlns:ns4="8883472b-a884-4206-9b1d-0a9e1a4d759c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd11ff14991a2a7c4b2bd50579d584c1" ns3:_="" ns4:_="">
     <xsd:import namespace="c4830a68-a8b0-4951-a620-6963d0f88529"/>
@@ -1967,29 +2737,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3905A48-2209-475D-B89F-4D2CCA4D7509}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A69715-2BF2-473E-A417-403290B48624}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6307CC5C-35AE-4BF6-AB1C-CA68C1295C47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6307CC5C-35AE-4BF6-AB1C-CA68C1295C47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7A69715-2BF2-473E-A417-403290B48624}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3905A48-2209-475D-B89F-4D2CCA4D7509}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c4830a68-a8b0-4951-a620-6963d0f88529"/>
+    <ds:schemaRef ds:uri="8883472b-a884-4206-9b1d-0a9e1a4d759c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>